--- a/biology/Botanique/Aurélien_Blanc/Aurélien_Blanc.xlsx
+++ b/biology/Botanique/Aurélien_Blanc/Aurélien_Blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lien_Blanc</t>
+          <t>Aurélien_Blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aurélien Blanc (né en 1979) est un sommelier français « Meilleur Jeune Sommelier de France 2000 ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lien_Blanc</t>
+          <t>Aurélien_Blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aurélien Blanc suit une partie de ses études au lycée hôtelier de Poligny dans le Jura d'où il sort avec un BTS en hôtellerie et restauration en 1996.
 Il s'est imposé, à Reims, au cours du 22e Trophée Ruinart. Il décroche ainsi le titre très convoité de Meilleur Jeune Sommelier de France 2000. En 2004, il est second au championnat de Meilleur sommelier de France remporté par Dominique Laporte.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aur%C3%A9lien_Blanc</t>
+          <t>Aurélien_Blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2000 - Meilleur jeune sommelier de France
 2004 - Second Meilleur sommelier de France</t>
